--- a/Excel-XLSX/UN-DMA.xlsx
+++ b/Excel-XLSX/UN-DMA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PMd11u</t>
+    <t>S8HnQ7</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-DMA.xlsx
+++ b/Excel-XLSX/UN-DMA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>S8HnQ7</t>
+    <t>n6nrlY</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-DMA.xlsx
+++ b/Excel-XLSX/UN-DMA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -27,13 +27,97 @@
     <t>maxPages</t>
   </si>
   <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>coo_id</t>
+  </si>
+  <si>
+    <t>coo_name</t>
+  </si>
+  <si>
+    <t>coo</t>
+  </si>
+  <si>
+    <t>coo_iso</t>
+  </si>
+  <si>
+    <t>coa_id</t>
+  </si>
+  <si>
+    <t>coa_name</t>
+  </si>
+  <si>
+    <t>coa</t>
+  </si>
+  <si>
+    <t>coa_iso</t>
+  </si>
+  <si>
+    <t>refugees</t>
+  </si>
+  <si>
+    <t>asylum_seekers</t>
+  </si>
+  <si>
+    <t>returned_refugees</t>
+  </si>
+  <si>
+    <t>idps</t>
+  </si>
+  <si>
+    <t>returned_idps</t>
+  </si>
+  <si>
+    <t>stateless</t>
+  </si>
+  <si>
+    <t>ooc</t>
+  </si>
+  <si>
+    <t>oip</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>n6nrlY</t>
+    <t>d8pUGN</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DMA</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -418,7 +502,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -436,16 +520,130 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
